--- a/biology/Botanique/Cyrillaceae/Cyrillaceae.xlsx
+++ b/biology/Botanique/Cyrillaceae/Cyrillaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cyrillaceae sont une famille de plantes à fleurs dicotylédones de l'ordre des Ericales qui comprend une dizaine d'espèces réparties en 2 à 3 genres.
 Ce sont de petits arbres ou des arbustes d'Amérique tropicale (à partir du sud-est des États-Unis) dont quelques-uns sont cultivés comme plantes d'ornement pour leurs inflorescences parfumées.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Cyrilla, nommé en l'honneur du médecin, botaniste et entomologiste italien Domenico Maria Leone Cirillo (1739–1799), médecin du roi Ferdinand IV de Naples. 
 </t>
@@ -543,12 +557,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (25 Jun 2010)[1], Angiosperm Phylogeny Website                        (25 Jun 2010)[2] et ITIS      (25 Jun 2010)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (25 Jun 2010), Angiosperm Phylogeny Website                        (25 Jun 2010) et ITIS      (25 Jun 2010) :
 genre Cliftonia (en) Banks ex Gaertn. f.
 genre Cyrilla (en) Garden ex L.
-Selon DELTA Angio           (25 Jun 2010)[4] :
+Selon DELTA Angio           (25 Jun 2010) :
 genre Cliftonia
 genre Cyrilla
 genre Purdiaea (en)</t>
@@ -579,9 +595,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (25 Jun 2010)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (25 Jun 2010) :
 genre Cliftonia
 Cliftonia monophylla
 genre Cyrilla
